--- a/data/pca/factorExposure/factorExposure_2011-05-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01709548229800228</v>
+        <v>0.01465931371595763</v>
       </c>
       <c r="C2">
-        <v>0.005621581875428847</v>
+        <v>-0.0003969584278615091</v>
       </c>
       <c r="D2">
-        <v>0.050712655601697</v>
+        <v>0.007748907411261386</v>
       </c>
       <c r="E2">
-        <v>-0.02412994499914336</v>
+        <v>0.04193175678648738</v>
       </c>
       <c r="F2">
-        <v>-0.03012925340860072</v>
+        <v>-0.003682199864868653</v>
       </c>
       <c r="G2">
-        <v>-0.01516964007097059</v>
+        <v>-0.01376209960081502</v>
       </c>
       <c r="H2">
-        <v>0.02316852603042922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.03954477710890489</v>
+      </c>
+      <c r="I2">
+        <v>-0.01265947911766081</v>
+      </c>
+      <c r="J2">
+        <v>0.01545672822962116</v>
+      </c>
+      <c r="K2">
+        <v>-0.04984820460034983</v>
+      </c>
+      <c r="L2">
+        <v>-0.02138084536193438</v>
+      </c>
+      <c r="M2">
+        <v>0.002252023884236142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07953779227159824</v>
+        <v>0.1111316570306852</v>
       </c>
       <c r="C4">
-        <v>-0.05759234073229044</v>
+        <v>-0.07723132353865211</v>
       </c>
       <c r="D4">
-        <v>0.03089769099091847</v>
+        <v>0.01707256559892485</v>
       </c>
       <c r="E4">
-        <v>-0.04439327420647585</v>
+        <v>0.0590182705198832</v>
       </c>
       <c r="F4">
-        <v>-0.01642213626838024</v>
+        <v>0.1362055343597175</v>
       </c>
       <c r="G4">
-        <v>-0.01374700899134371</v>
+        <v>0.02547437796427686</v>
       </c>
       <c r="H4">
-        <v>0.004670386633547067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.02067377306017182</v>
+      </c>
+      <c r="I4">
+        <v>0.02970358059710218</v>
+      </c>
+      <c r="J4">
+        <v>0.02831792320132277</v>
+      </c>
+      <c r="K4">
+        <v>0.09988535240297057</v>
+      </c>
+      <c r="L4">
+        <v>-0.02779023435950084</v>
+      </c>
+      <c r="M4">
+        <v>0.04538912490263482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.127774233577007</v>
+        <v>0.1332118836376696</v>
       </c>
       <c r="C6">
-        <v>-0.03874242769872981</v>
+        <v>-0.05071648429478004</v>
       </c>
       <c r="D6">
-        <v>0.04059815568844719</v>
+        <v>-0.0002910170526183901</v>
       </c>
       <c r="E6">
-        <v>-0.05847040296096514</v>
+        <v>-0.001656264750467899</v>
       </c>
       <c r="F6">
-        <v>0.1064445450632368</v>
+        <v>-0.01392891343354547</v>
       </c>
       <c r="G6">
-        <v>0.04223328141859538</v>
+        <v>0.1086227373876221</v>
       </c>
       <c r="H6">
-        <v>-0.2664260146641486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.006672422855735082</v>
+      </c>
+      <c r="I6">
+        <v>0.4172194166836117</v>
+      </c>
+      <c r="J6">
+        <v>-0.179586518597384</v>
+      </c>
+      <c r="K6">
+        <v>0.1038053184882141</v>
+      </c>
+      <c r="L6">
+        <v>-0.1004810541091677</v>
+      </c>
+      <c r="M6">
+        <v>-0.0105384883678074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07112646241896303</v>
+        <v>0.07002216071745568</v>
       </c>
       <c r="C7">
-        <v>-0.05568562948510054</v>
+        <v>-0.06576104143755457</v>
       </c>
       <c r="D7">
-        <v>0.04849597356452454</v>
+        <v>0.01262837324413821</v>
       </c>
       <c r="E7">
-        <v>-0.04293841108752808</v>
+        <v>0.05827508328245667</v>
       </c>
       <c r="F7">
-        <v>0.04522212664880923</v>
+        <v>0.01970565926357681</v>
       </c>
       <c r="G7">
-        <v>-0.0002910303748281998</v>
+        <v>0.01638038544315643</v>
       </c>
       <c r="H7">
-        <v>0.03201338188727899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01950193297344544</v>
+      </c>
+      <c r="I7">
+        <v>-0.05977979419082708</v>
+      </c>
+      <c r="J7">
+        <v>0.06751670916386081</v>
+      </c>
+      <c r="K7">
+        <v>0.06926417898075168</v>
+      </c>
+      <c r="L7">
+        <v>-0.02700590599881856</v>
+      </c>
+      <c r="M7">
+        <v>-0.0468652969264539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03198128857430005</v>
+        <v>0.04297459952330957</v>
       </c>
       <c r="C8">
-        <v>-0.01836438371511636</v>
+        <v>-0.01270976009916746</v>
       </c>
       <c r="D8">
-        <v>0.05916671690412255</v>
+        <v>0.006578332472218991</v>
       </c>
       <c r="E8">
-        <v>-0.05253265154394068</v>
+        <v>0.04818038243953752</v>
       </c>
       <c r="F8">
-        <v>-0.01757480861111891</v>
+        <v>0.1129014573310349</v>
       </c>
       <c r="G8">
-        <v>-0.05831652668798573</v>
+        <v>-0.001197181207976586</v>
       </c>
       <c r="H8">
-        <v>0.003679248647396054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.005569871599041057</v>
+      </c>
+      <c r="I8">
+        <v>0.03628624296936258</v>
+      </c>
+      <c r="J8">
+        <v>0.02657043351474953</v>
+      </c>
+      <c r="K8">
+        <v>0.0612672479273121</v>
+      </c>
+      <c r="L8">
+        <v>-0.06246000468306723</v>
+      </c>
+      <c r="M8">
+        <v>0.0566356051329474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07748302380278058</v>
+        <v>0.08493851601785039</v>
       </c>
       <c r="C9">
-        <v>-0.0645369435514348</v>
+        <v>-0.0690874323754205</v>
       </c>
       <c r="D9">
-        <v>0.03338341024540286</v>
+        <v>-0.001433392190907936</v>
       </c>
       <c r="E9">
-        <v>-0.04161569699663448</v>
+        <v>0.03927028658943762</v>
       </c>
       <c r="F9">
-        <v>-0.02363318304353498</v>
+        <v>0.1274233648675642</v>
       </c>
       <c r="G9">
-        <v>-0.01567966854400733</v>
+        <v>0.03613004122069458</v>
       </c>
       <c r="H9">
-        <v>0.003846186438162832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.005284452668920848</v>
+      </c>
+      <c r="I9">
+        <v>0.003282657529192357</v>
+      </c>
+      <c r="J9">
+        <v>0.02967207121523472</v>
+      </c>
+      <c r="K9">
+        <v>0.05868343545736416</v>
+      </c>
+      <c r="L9">
+        <v>-0.03382186580434939</v>
+      </c>
+      <c r="M9">
+        <v>-0.01623898869445094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06133527688370991</v>
+        <v>0.1114667090293049</v>
       </c>
       <c r="C10">
-        <v>0.1364550665059904</v>
+        <v>0.1641478353092677</v>
       </c>
       <c r="D10">
-        <v>0.07937268353505481</v>
+        <v>0.01026179474242512</v>
       </c>
       <c r="E10">
-        <v>-0.04384054336748659</v>
+        <v>0.0447197519068985</v>
       </c>
       <c r="F10">
-        <v>0.0393040253643719</v>
+        <v>-0.02304446199353791</v>
       </c>
       <c r="G10">
-        <v>0.001163889624186851</v>
+        <v>0.02913977682060117</v>
       </c>
       <c r="H10">
-        <v>-0.01832494983473139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.009928350546952699</v>
+      </c>
+      <c r="I10">
+        <v>-0.02531238731680921</v>
+      </c>
+      <c r="J10">
+        <v>-0.02738327575278854</v>
+      </c>
+      <c r="K10">
+        <v>-0.02522216512539987</v>
+      </c>
+      <c r="L10">
+        <v>0.03380738937247104</v>
+      </c>
+      <c r="M10">
+        <v>-0.1277919419638525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.0716548758382273</v>
+        <v>0.06821748348704325</v>
       </c>
       <c r="C11">
-        <v>-0.08249843522884255</v>
+        <v>-0.0749433361049523</v>
       </c>
       <c r="D11">
-        <v>0.01575325013926639</v>
+        <v>-0.02742667945221687</v>
       </c>
       <c r="E11">
-        <v>-0.002672472271629338</v>
+        <v>0.01272170441929512</v>
       </c>
       <c r="F11">
-        <v>-0.03776475430310745</v>
+        <v>0.1138511616278845</v>
       </c>
       <c r="G11">
-        <v>-0.08043736787552232</v>
+        <v>0.03237972652504723</v>
       </c>
       <c r="H11">
-        <v>0.05352705080580922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.03211072891427044</v>
+      </c>
+      <c r="I11">
+        <v>-0.07151426975967866</v>
+      </c>
+      <c r="J11">
+        <v>0.0422446172768195</v>
+      </c>
+      <c r="K11">
+        <v>-0.05709958233513283</v>
+      </c>
+      <c r="L11">
+        <v>-0.03699109266075497</v>
+      </c>
+      <c r="M11">
+        <v>-0.1265457340218938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07022793732824779</v>
+        <v>0.06874970755022028</v>
       </c>
       <c r="C12">
-        <v>-0.0568378249483885</v>
+        <v>-0.06647709233895968</v>
       </c>
       <c r="D12">
-        <v>0.007755276643761028</v>
+        <v>-0.02751464935990408</v>
       </c>
       <c r="E12">
-        <v>-0.030231198378686</v>
+        <v>0.005038853455719389</v>
       </c>
       <c r="F12">
-        <v>0.0104547798910069</v>
+        <v>0.1184315395723506</v>
       </c>
       <c r="G12">
-        <v>-0.05491987963795771</v>
+        <v>0.02828181251587991</v>
       </c>
       <c r="H12">
-        <v>0.05585091586067852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.03687119831357392</v>
+      </c>
+      <c r="I12">
+        <v>-0.04444365202390729</v>
+      </c>
+      <c r="J12">
+        <v>0.07267996842285276</v>
+      </c>
+      <c r="K12">
+        <v>-0.03689484779150923</v>
+      </c>
+      <c r="L12">
+        <v>-0.05194186482532386</v>
+      </c>
+      <c r="M12">
+        <v>-0.1476369367815779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.06095068960126013</v>
+        <v>0.04560357734965721</v>
       </c>
       <c r="C13">
-        <v>-0.01345762571918018</v>
+        <v>-0.03246387821050344</v>
       </c>
       <c r="D13">
-        <v>-0.002451662898935994</v>
+        <v>0.02123005546081388</v>
       </c>
       <c r="E13">
-        <v>-0.02183263561552369</v>
+        <v>0.01365554376592378</v>
       </c>
       <c r="F13">
-        <v>-0.05173979513861031</v>
+        <v>0.04317282441412548</v>
       </c>
       <c r="G13">
-        <v>0.002596617587374183</v>
+        <v>-0.002901601915303719</v>
       </c>
       <c r="H13">
-        <v>-0.005120830666582958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01257616453901283</v>
+      </c>
+      <c r="I13">
+        <v>-0.001750574123851629</v>
+      </c>
+      <c r="J13">
+        <v>0.01645780683926304</v>
+      </c>
+      <c r="K13">
+        <v>0.03622083808929958</v>
+      </c>
+      <c r="L13">
+        <v>0.0116188972424365</v>
+      </c>
+      <c r="M13">
+        <v>0.02159676703172094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04871457971680455</v>
+        <v>0.03993920288551107</v>
       </c>
       <c r="C14">
-        <v>-0.02293543890801756</v>
+        <v>-0.02892661547092664</v>
       </c>
       <c r="D14">
-        <v>0.02617080964747271</v>
+        <v>-0.01322781125454004</v>
       </c>
       <c r="E14">
-        <v>-0.02328444384355727</v>
+        <v>0.02022849198553482</v>
       </c>
       <c r="F14">
-        <v>0.01943840780973723</v>
+        <v>0.06260200961604938</v>
       </c>
       <c r="G14">
-        <v>-0.002689744838199404</v>
+        <v>-0.003173968636305539</v>
       </c>
       <c r="H14">
-        <v>-0.06892777571421323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03032816675960892</v>
+      </c>
+      <c r="I14">
+        <v>0.001312812267895782</v>
+      </c>
+      <c r="J14">
+        <v>-0.004431270377112861</v>
+      </c>
+      <c r="K14">
+        <v>0.1040116112874808</v>
+      </c>
+      <c r="L14">
+        <v>-0.01735822014735501</v>
+      </c>
+      <c r="M14">
+        <v>-0.0007567230413025119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03731822321326867</v>
+        <v>0.02565639375596146</v>
       </c>
       <c r="C15">
-        <v>0.005697722568551995</v>
+        <v>-0.009790327190837299</v>
       </c>
       <c r="D15">
-        <v>-0.006171450895171497</v>
+        <v>0.05576806465483584</v>
       </c>
       <c r="E15">
-        <v>-0.02263138677948658</v>
+        <v>0.004169912647395444</v>
       </c>
       <c r="F15">
-        <v>-0.00544123536124647</v>
+        <v>-0.002342737833834714</v>
       </c>
       <c r="G15">
-        <v>0.009491460919405215</v>
+        <v>0.03650694025373456</v>
       </c>
       <c r="H15">
-        <v>-0.01362133284043823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.02053815203239491</v>
+      </c>
+      <c r="I15">
+        <v>0.004527548437715236</v>
+      </c>
+      <c r="J15">
+        <v>-0.004379974871151116</v>
+      </c>
+      <c r="K15">
+        <v>0.08382840566812501</v>
+      </c>
+      <c r="L15">
+        <v>0.005429286711077708</v>
+      </c>
+      <c r="M15">
+        <v>-0.01306727833921024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06328343511576957</v>
+        <v>0.0719837560975547</v>
       </c>
       <c r="C16">
-        <v>-0.08275512318042175</v>
+        <v>-0.08071611887808565</v>
       </c>
       <c r="D16">
-        <v>0.01888198956101448</v>
+        <v>-0.01782185386757132</v>
       </c>
       <c r="E16">
-        <v>-0.03185576215007635</v>
+        <v>0.01351003758687581</v>
       </c>
       <c r="F16">
-        <v>-0.03684612635658369</v>
+        <v>0.1139985029158317</v>
       </c>
       <c r="G16">
-        <v>-0.05565355749247834</v>
+        <v>0.01789974751391075</v>
       </c>
       <c r="H16">
-        <v>0.04771468371659596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.02587703452133006</v>
+      </c>
+      <c r="I16">
+        <v>-0.05777916291360037</v>
+      </c>
+      <c r="J16">
+        <v>0.0609460996175589</v>
+      </c>
+      <c r="K16">
+        <v>-0.03781852806193517</v>
+      </c>
+      <c r="L16">
+        <v>-0.05864640286498887</v>
+      </c>
+      <c r="M16">
+        <v>-0.130408748922746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04508139842237659</v>
+        <v>0.04659186497168141</v>
       </c>
       <c r="C20">
-        <v>-0.0466904544192934</v>
+        <v>-0.03219747752858807</v>
       </c>
       <c r="D20">
-        <v>0.009725654959350814</v>
+        <v>0.02521183422280886</v>
       </c>
       <c r="E20">
-        <v>-0.01987477293764768</v>
+        <v>0.0225404341715581</v>
       </c>
       <c r="F20">
-        <v>-0.01855006362224546</v>
+        <v>0.06914068415067784</v>
       </c>
       <c r="G20">
-        <v>-0.02307628826232033</v>
+        <v>-0.008774289707119191</v>
       </c>
       <c r="H20">
-        <v>0.009369702919784239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01842636824276454</v>
+      </c>
+      <c r="I20">
+        <v>0.000519856357782966</v>
+      </c>
+      <c r="J20">
+        <v>0.02205131197997705</v>
+      </c>
+      <c r="K20">
+        <v>0.06705405012503243</v>
+      </c>
+      <c r="L20">
+        <v>-0.04390884273658901</v>
+      </c>
+      <c r="M20">
+        <v>-0.02424443507040133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02185091391221306</v>
+        <v>0.0235252351241285</v>
       </c>
       <c r="C21">
-        <v>-0.03527668806263929</v>
+        <v>-0.02347405809185005</v>
       </c>
       <c r="D21">
-        <v>-0.002509903680971022</v>
+        <v>0.008191743178243673</v>
       </c>
       <c r="E21">
-        <v>-0.05813464932518415</v>
+        <v>0.03084735068119604</v>
       </c>
       <c r="F21">
-        <v>0.07283694168794029</v>
+        <v>0.05289041474259627</v>
       </c>
       <c r="G21">
-        <v>0.002533457072988434</v>
+        <v>0.09177102258692633</v>
       </c>
       <c r="H21">
-        <v>-0.01643414747489559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.09469692951006338</v>
+      </c>
+      <c r="I21">
+        <v>-0.02368764281047239</v>
+      </c>
+      <c r="J21">
+        <v>-0.001491555875067424</v>
+      </c>
+      <c r="K21">
+        <v>0.08886389100063635</v>
+      </c>
+      <c r="L21">
+        <v>0.02755596866455242</v>
+      </c>
+      <c r="M21">
+        <v>-0.04820923789742498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01117758682685657</v>
+        <v>0.04262178716657294</v>
       </c>
       <c r="C22">
-        <v>-0.03489261450453925</v>
+        <v>-0.02436971304088865</v>
       </c>
       <c r="D22">
-        <v>-0.08340222597547642</v>
+        <v>0.6545338731528776</v>
       </c>
       <c r="E22">
-        <v>-0.5200946408609214</v>
+        <v>0.04627383844788119</v>
       </c>
       <c r="F22">
-        <v>-0.1381306421801446</v>
+        <v>-0.03925793626772428</v>
       </c>
       <c r="G22">
-        <v>0.2489517222112289</v>
+        <v>-0.1293817071531038</v>
       </c>
       <c r="H22">
-        <v>0.1876186514599894</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1210439362899209</v>
+      </c>
+      <c r="I22">
+        <v>-0.01388045999434631</v>
+      </c>
+      <c r="J22">
+        <v>-0.03078857749555697</v>
+      </c>
+      <c r="K22">
+        <v>-0.03509556941923508</v>
+      </c>
+      <c r="L22">
+        <v>0.0106856584624105</v>
+      </c>
+      <c r="M22">
+        <v>-0.002100194582802141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.009983723856139872</v>
+        <v>0.04284718004060057</v>
       </c>
       <c r="C23">
-        <v>-0.03363660935965243</v>
+        <v>-0.0245662802360375</v>
       </c>
       <c r="D23">
-        <v>-0.08282786131234739</v>
+        <v>0.6560220883098884</v>
       </c>
       <c r="E23">
-        <v>-0.5189033225106032</v>
+        <v>0.04682188210288488</v>
       </c>
       <c r="F23">
-        <v>-0.1372146815403937</v>
+        <v>-0.03648781470382975</v>
       </c>
       <c r="G23">
-        <v>0.2496742352966208</v>
+        <v>-0.1297331340246767</v>
       </c>
       <c r="H23">
-        <v>0.1849257260674962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.119084697876502</v>
+      </c>
+      <c r="I23">
+        <v>-0.01046283640744325</v>
+      </c>
+      <c r="J23">
+        <v>-0.03206758437847692</v>
+      </c>
+      <c r="K23">
+        <v>-0.03668337736446015</v>
+      </c>
+      <c r="L23">
+        <v>0.008756165573590649</v>
+      </c>
+      <c r="M23">
+        <v>-0.002321883762678546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07698841698942487</v>
+        <v>0.07590544655010996</v>
       </c>
       <c r="C24">
-        <v>-0.07303302873149482</v>
+        <v>-0.07749206796173234</v>
       </c>
       <c r="D24">
-        <v>0.02000722678525871</v>
+        <v>-0.012762641474928</v>
       </c>
       <c r="E24">
-        <v>-0.03425669472043943</v>
+        <v>0.0175782281988398</v>
       </c>
       <c r="F24">
-        <v>-0.01842592387315913</v>
+        <v>0.1122563971191165</v>
       </c>
       <c r="G24">
-        <v>-0.05860464748462432</v>
+        <v>0.02790208526374747</v>
       </c>
       <c r="H24">
-        <v>0.03688719677896968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.0280432897152194</v>
+      </c>
+      <c r="I24">
+        <v>-0.05122959668359942</v>
+      </c>
+      <c r="J24">
+        <v>0.04274097732745327</v>
+      </c>
+      <c r="K24">
+        <v>-0.05246194882129156</v>
+      </c>
+      <c r="L24">
+        <v>-0.04774154327685032</v>
+      </c>
+      <c r="M24">
+        <v>-0.115986753784538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06878625604278858</v>
+        <v>0.07303807222224364</v>
       </c>
       <c r="C25">
-        <v>-0.04271326241076175</v>
+        <v>-0.05363874488241033</v>
       </c>
       <c r="D25">
-        <v>0.02293680007094664</v>
+        <v>-0.03147642599102872</v>
       </c>
       <c r="E25">
-        <v>-0.04091874477749127</v>
+        <v>0.01471911195612889</v>
       </c>
       <c r="F25">
-        <v>-0.03351535815621567</v>
+        <v>0.1211431471266836</v>
       </c>
       <c r="G25">
-        <v>-0.06684198868421132</v>
+        <v>0.01606338719933845</v>
       </c>
       <c r="H25">
-        <v>0.004246988618755338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.01774672883288254</v>
+      </c>
+      <c r="I25">
+        <v>-0.0519714457749224</v>
+      </c>
+      <c r="J25">
+        <v>0.03355370991093154</v>
+      </c>
+      <c r="K25">
+        <v>-0.06362022509948007</v>
+      </c>
+      <c r="L25">
+        <v>-0.06749717105835314</v>
+      </c>
+      <c r="M25">
+        <v>-0.1228133787612267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04512917652979054</v>
+        <v>0.04427589896731662</v>
       </c>
       <c r="C26">
-        <v>-0.0429485885183574</v>
+        <v>-0.01932072887852909</v>
       </c>
       <c r="D26">
-        <v>0.04206550797807426</v>
+        <v>0.01247444107849472</v>
       </c>
       <c r="E26">
-        <v>-0.00401570195669064</v>
+        <v>0.0056404518220338</v>
       </c>
       <c r="F26">
-        <v>-0.0110494318500962</v>
+        <v>0.04379370672466137</v>
       </c>
       <c r="G26">
-        <v>0.01566643652144682</v>
+        <v>-0.004921020075628582</v>
       </c>
       <c r="H26">
-        <v>0.009390752269806041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01341970315734794</v>
+      </c>
+      <c r="I26">
+        <v>-0.0215864092237007</v>
+      </c>
+      <c r="J26">
+        <v>0.01314164791784691</v>
+      </c>
+      <c r="K26">
+        <v>0.1310671480457145</v>
+      </c>
+      <c r="L26">
+        <v>0.0302821791447013</v>
+      </c>
+      <c r="M26">
+        <v>-0.03847598017986319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1067974817921632</v>
+        <v>0.1462001036435667</v>
       </c>
       <c r="C28">
-        <v>0.2903002472846212</v>
+        <v>0.2838158631140537</v>
       </c>
       <c r="D28">
-        <v>0.06480470591478628</v>
+        <v>-0.009221015387417554</v>
       </c>
       <c r="E28">
-        <v>-0.001290111871006801</v>
+        <v>0.02242002541104321</v>
       </c>
       <c r="F28">
-        <v>0.04961205079708743</v>
+        <v>0.003631296082806532</v>
       </c>
       <c r="G28">
-        <v>-0.001848733181271948</v>
+        <v>0.008152592308919354</v>
       </c>
       <c r="H28">
-        <v>0.05616749938548354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.0217720159856692</v>
+      </c>
+      <c r="I28">
+        <v>0.01182531448551737</v>
+      </c>
+      <c r="J28">
+        <v>0.02499323434716885</v>
+      </c>
+      <c r="K28">
+        <v>0.01366422118424899</v>
+      </c>
+      <c r="L28">
+        <v>0.01673677535383815</v>
+      </c>
+      <c r="M28">
+        <v>0.0132163494601352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05152625204484809</v>
+        <v>0.04103635282898403</v>
       </c>
       <c r="C29">
-        <v>-0.02337950040734624</v>
+        <v>-0.02827996705250985</v>
       </c>
       <c r="D29">
-        <v>0.01400619370349693</v>
+        <v>-0.004294021900578057</v>
       </c>
       <c r="E29">
-        <v>-0.02883881279525652</v>
+        <v>0.0270284363603977</v>
       </c>
       <c r="F29">
-        <v>-0.003298109598206111</v>
+        <v>0.06067911462351076</v>
       </c>
       <c r="G29">
-        <v>0.01126544364290727</v>
+        <v>-0.01308106573349733</v>
       </c>
       <c r="H29">
-        <v>-0.008460382866374891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.005431372001277558</v>
+      </c>
+      <c r="I29">
+        <v>0.004885125370522561</v>
+      </c>
+      <c r="J29">
+        <v>-0.0001134233788421983</v>
+      </c>
+      <c r="K29">
+        <v>0.0895476694312764</v>
+      </c>
+      <c r="L29">
+        <v>-0.01673452742750826</v>
+      </c>
+      <c r="M29">
+        <v>-0.01542271530092228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1277428354926566</v>
+        <v>0.1053322436629279</v>
       </c>
       <c r="C30">
-        <v>-0.05495286045590678</v>
+        <v>-0.05879803566795851</v>
       </c>
       <c r="D30">
-        <v>0.04740357762499218</v>
+        <v>-0.004926265760239048</v>
       </c>
       <c r="E30">
-        <v>-0.1256903643794261</v>
+        <v>0.04856505895717277</v>
       </c>
       <c r="F30">
-        <v>0.02377699785919327</v>
+        <v>0.2406709169748801</v>
       </c>
       <c r="G30">
-        <v>-0.173803774060504</v>
+        <v>-0.08566022212092694</v>
       </c>
       <c r="H30">
-        <v>0.0143081255671605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2749623871276403</v>
+      </c>
+      <c r="I30">
+        <v>0.07352553032430774</v>
+      </c>
+      <c r="J30">
+        <v>0.08605014074924322</v>
+      </c>
+      <c r="K30">
+        <v>0.158912726575864</v>
+      </c>
+      <c r="L30">
+        <v>-0.02747899364396441</v>
+      </c>
+      <c r="M30">
+        <v>0.4138817690754665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04999720390074115</v>
+        <v>0.03807525763319833</v>
       </c>
       <c r="C31">
-        <v>-0.02662335934493126</v>
+        <v>-0.04998271029950054</v>
       </c>
       <c r="D31">
-        <v>-0.007559924818129372</v>
+        <v>0.004009612592268301</v>
       </c>
       <c r="E31">
-        <v>0.0008886689016283271</v>
+        <v>-0.007521840795239924</v>
       </c>
       <c r="F31">
-        <v>-0.01122245499243239</v>
+        <v>0.02648944147385824</v>
       </c>
       <c r="G31">
-        <v>0.03701892800206831</v>
+        <v>-0.01592556246749293</v>
       </c>
       <c r="H31">
-        <v>-0.0008441434415873156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04281507264143195</v>
+      </c>
+      <c r="I31">
+        <v>0.0004900595377818576</v>
+      </c>
+      <c r="J31">
+        <v>-0.0005557239406992112</v>
+      </c>
+      <c r="K31">
+        <v>0.02875358116280888</v>
+      </c>
+      <c r="L31">
+        <v>-0.03077265778266604</v>
+      </c>
+      <c r="M31">
+        <v>0.002189017675556522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01659796607477684</v>
+        <v>0.04390590383419152</v>
       </c>
       <c r="C32">
-        <v>0.01945148174214027</v>
+        <v>0.004454171140097291</v>
       </c>
       <c r="D32">
-        <v>-0.01178254493676159</v>
+        <v>-0.01362649052480633</v>
       </c>
       <c r="E32">
-        <v>-0.08352324722419285</v>
+        <v>-0.002644698638505765</v>
       </c>
       <c r="F32">
-        <v>-0.07445001656313641</v>
+        <v>0.08316666387301644</v>
       </c>
       <c r="G32">
-        <v>-0.03074756169221234</v>
+        <v>0.03329261325332725</v>
       </c>
       <c r="H32">
-        <v>0.05062942313745041</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.04520214451008597</v>
+      </c>
+      <c r="I32">
+        <v>-0.06260087414104606</v>
+      </c>
+      <c r="J32">
+        <v>0.02957680070000441</v>
+      </c>
+      <c r="K32">
+        <v>0.04307179385129999</v>
+      </c>
+      <c r="L32">
+        <v>-0.009257371909768218</v>
+      </c>
+      <c r="M32">
+        <v>0.1726866072322567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1044721911962306</v>
+        <v>0.09938902904244708</v>
       </c>
       <c r="C33">
-        <v>-0.04454909396222264</v>
+        <v>-0.06771555544582025</v>
       </c>
       <c r="D33">
-        <v>0.002450349037290862</v>
+        <v>-0.01354439697873441</v>
       </c>
       <c r="E33">
-        <v>-0.02047450759625453</v>
+        <v>-0.01138948919360997</v>
       </c>
       <c r="F33">
-        <v>-0.05229277839160876</v>
+        <v>0.08236794186146702</v>
       </c>
       <c r="G33">
-        <v>-0.02393383961658728</v>
+        <v>-0.01846264945195528</v>
       </c>
       <c r="H33">
-        <v>0.001768419927709149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.004805274839127844</v>
+      </c>
+      <c r="I33">
+        <v>-0.009745607347310793</v>
+      </c>
+      <c r="J33">
+        <v>-0.03075605060681409</v>
+      </c>
+      <c r="K33">
+        <v>0.04091760037100575</v>
+      </c>
+      <c r="L33">
+        <v>-0.00193401200362461</v>
+      </c>
+      <c r="M33">
+        <v>-0.008852365891985091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05534991899875287</v>
+        <v>0.06358641070985668</v>
       </c>
       <c r="C34">
-        <v>-0.07580717951383147</v>
+        <v>-0.06567199257577462</v>
       </c>
       <c r="D34">
-        <v>0.007612799087100296</v>
+        <v>-0.02173939708875867</v>
       </c>
       <c r="E34">
-        <v>-0.01886426797451776</v>
+        <v>0.01178970495529688</v>
       </c>
       <c r="F34">
-        <v>-0.02112622628975716</v>
+        <v>0.1035922616665547</v>
       </c>
       <c r="G34">
-        <v>-0.03990487760566407</v>
+        <v>0.02261401694266584</v>
       </c>
       <c r="H34">
-        <v>0.0317100231670862</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.01145521773039033</v>
+      </c>
+      <c r="I34">
+        <v>-0.06408598188224571</v>
+      </c>
+      <c r="J34">
+        <v>0.05471459304726368</v>
+      </c>
+      <c r="K34">
+        <v>-0.01667752231783147</v>
+      </c>
+      <c r="L34">
+        <v>-0.05428927888761442</v>
+      </c>
+      <c r="M34">
+        <v>-0.1318068112590592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04420382087004125</v>
+        <v>0.02524112870930122</v>
       </c>
       <c r="C35">
-        <v>-0.04350629491039681</v>
+        <v>-0.02385903426891751</v>
       </c>
       <c r="D35">
-        <v>-0.003241613756811912</v>
+        <v>0.0003345611897525492</v>
       </c>
       <c r="E35">
-        <v>-0.01539057626253872</v>
+        <v>0.001195830943629217</v>
       </c>
       <c r="F35">
-        <v>0.003529943704861666</v>
+        <v>0.03436556264724358</v>
       </c>
       <c r="G35">
-        <v>-0.01523380743836904</v>
+        <v>-0.005667877411260286</v>
       </c>
       <c r="H35">
-        <v>0.00794243190228623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.0243853366219098</v>
+      </c>
+      <c r="I35">
+        <v>-0.04322231500889652</v>
+      </c>
+      <c r="J35">
+        <v>0.04234394386618756</v>
+      </c>
+      <c r="K35">
+        <v>0.05220114812101962</v>
+      </c>
+      <c r="L35">
+        <v>-0.03167400589840147</v>
+      </c>
+      <c r="M35">
+        <v>-0.009125571605582833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03454436067474054</v>
+        <v>0.02806200521437803</v>
       </c>
       <c r="C36">
-        <v>-0.02386142657316384</v>
+        <v>-0.01974038626210396</v>
       </c>
       <c r="D36">
-        <v>0.02622314677441168</v>
+        <v>0.01346151103342918</v>
       </c>
       <c r="E36">
-        <v>-0.0390234919238134</v>
+        <v>0.01523150029455486</v>
       </c>
       <c r="F36">
-        <v>-0.02748087009616538</v>
+        <v>0.06530931887880752</v>
       </c>
       <c r="G36">
-        <v>-0.01223787262992955</v>
+        <v>0.00535316640933569</v>
       </c>
       <c r="H36">
-        <v>-0.02336286475165617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.003426096751090643</v>
+      </c>
+      <c r="I36">
+        <v>0.01680680126102792</v>
+      </c>
+      <c r="J36">
+        <v>-0.004128358263093215</v>
+      </c>
+      <c r="K36">
+        <v>0.0509286498880819</v>
+      </c>
+      <c r="L36">
+        <v>-0.0112606614861187</v>
+      </c>
+      <c r="M36">
+        <v>-0.05776969782264506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04987273730622453</v>
+        <v>0.02864749314519731</v>
       </c>
       <c r="C38">
-        <v>-0.0406631088308016</v>
+        <v>-0.04801214550771381</v>
       </c>
       <c r="D38">
-        <v>-0.004111549306962912</v>
+        <v>0.02308772134709077</v>
       </c>
       <c r="E38">
-        <v>-0.0453645712338801</v>
+        <v>0.007375444496243705</v>
       </c>
       <c r="F38">
-        <v>-0.05826679216721099</v>
+        <v>-0.03849815161460452</v>
       </c>
       <c r="G38">
-        <v>-0.02422193027770679</v>
+        <v>-0.06559286233876925</v>
       </c>
       <c r="H38">
-        <v>0.02077779035229578</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.02024513215947179</v>
+      </c>
+      <c r="I38">
+        <v>-0.01886805219976464</v>
+      </c>
+      <c r="J38">
+        <v>-0.007364115527211863</v>
+      </c>
+      <c r="K38">
+        <v>0.05880331319139143</v>
+      </c>
+      <c r="L38">
+        <v>0.1082486308303386</v>
+      </c>
+      <c r="M38">
+        <v>0.08376526787677258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09853487982259845</v>
+        <v>0.1033888501550905</v>
       </c>
       <c r="C39">
-        <v>-0.08882017538376813</v>
+        <v>-0.09393539895757969</v>
       </c>
       <c r="D39">
-        <v>-0.003170949376345977</v>
+        <v>-0.08387268858605484</v>
       </c>
       <c r="E39">
-        <v>-0.03287601969379998</v>
+        <v>-0.02648776884754107</v>
       </c>
       <c r="F39">
-        <v>-0.01295844214559367</v>
+        <v>0.1802173940184782</v>
       </c>
       <c r="G39">
-        <v>-0.1011552714988505</v>
+        <v>-0.05923472550503146</v>
       </c>
       <c r="H39">
-        <v>0.1068438544508331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.09707888167050166</v>
+      </c>
+      <c r="I39">
+        <v>-0.07124703511962358</v>
+      </c>
+      <c r="J39">
+        <v>0.1350669642928615</v>
+      </c>
+      <c r="K39">
+        <v>-0.1139814417206141</v>
+      </c>
+      <c r="L39">
+        <v>-0.1048733797576669</v>
+      </c>
+      <c r="M39">
+        <v>0.02617881595913384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04411875253534821</v>
+        <v>0.03183664682188126</v>
       </c>
       <c r="C40">
-        <v>-0.02976359607137174</v>
+        <v>-0.05812744774647513</v>
       </c>
       <c r="D40">
-        <v>-0.05680011563406916</v>
+        <v>0.04438234267386112</v>
       </c>
       <c r="E40">
-        <v>-0.1205013790828316</v>
+        <v>0.01286502438913071</v>
       </c>
       <c r="F40">
-        <v>-0.06795217760067836</v>
+        <v>0.1116592762560294</v>
       </c>
       <c r="G40">
-        <v>-0.1143514843699181</v>
+        <v>0.07083605470362303</v>
       </c>
       <c r="H40">
-        <v>0.07924234463832742</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.06125082302372813</v>
+      </c>
+      <c r="I40">
+        <v>-0.04369079242285072</v>
+      </c>
+      <c r="J40">
+        <v>-0.01380198483538609</v>
+      </c>
+      <c r="K40">
+        <v>0.06691826147440431</v>
+      </c>
+      <c r="L40">
+        <v>0.129364428226338</v>
+      </c>
+      <c r="M40">
+        <v>0.06787685205985017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04609942327346704</v>
+        <v>0.04041198887925523</v>
       </c>
       <c r="C41">
-        <v>-0.04831399192489016</v>
+        <v>-0.03764288565688124</v>
       </c>
       <c r="D41">
-        <v>0.001033496662018417</v>
+        <v>-0.01503414406956603</v>
       </c>
       <c r="E41">
-        <v>-0.001294772756536909</v>
+        <v>0.001044400564597502</v>
       </c>
       <c r="F41">
-        <v>-0.02726893184310948</v>
+        <v>0.02491337429699401</v>
       </c>
       <c r="G41">
-        <v>-0.01466757292979011</v>
+        <v>-0.02280968554308628</v>
       </c>
       <c r="H41">
-        <v>0.02222860978478707</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.005314085643942673</v>
+      </c>
+      <c r="I41">
+        <v>-0.03046888102182351</v>
+      </c>
+      <c r="J41">
+        <v>0.02493400493646531</v>
+      </c>
+      <c r="K41">
+        <v>0.03908826813710668</v>
+      </c>
+      <c r="L41">
+        <v>0.009466389566721224</v>
+      </c>
+      <c r="M41">
+        <v>-0.02941570414165334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06112547029464547</v>
+        <v>0.05066087304196441</v>
       </c>
       <c r="C43">
-        <v>-0.03932377954536084</v>
+        <v>-0.04458196245060286</v>
       </c>
       <c r="D43">
-        <v>0.02331321221535354</v>
+        <v>0.01137874794030424</v>
       </c>
       <c r="E43">
-        <v>-0.03074566903010101</v>
+        <v>0.01370697865569312</v>
       </c>
       <c r="F43">
-        <v>-0.01403586129584251</v>
+        <v>0.01864769779980114</v>
       </c>
       <c r="G43">
-        <v>0.002511966348518307</v>
+        <v>-0.0469654434341101</v>
       </c>
       <c r="H43">
-        <v>0.01728753859046719</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.005207623461639296</v>
+      </c>
+      <c r="I43">
+        <v>-0.004209583160452041</v>
+      </c>
+      <c r="J43">
+        <v>0.04597827029446185</v>
+      </c>
+      <c r="K43">
+        <v>0.01966751540994103</v>
+      </c>
+      <c r="L43">
+        <v>-0.008370295399090979</v>
+      </c>
+      <c r="M43">
+        <v>-0.03732062169881677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.0459377319624919</v>
+        <v>0.08422514138193998</v>
       </c>
       <c r="C44">
-        <v>-0.01624926361299296</v>
+        <v>-0.0589239043221735</v>
       </c>
       <c r="D44">
-        <v>0.07595913024423939</v>
+        <v>0.07905176400762161</v>
       </c>
       <c r="E44">
-        <v>-0.09417857189700146</v>
+        <v>0.1100464883093538</v>
       </c>
       <c r="F44">
-        <v>-0.03213958059099051</v>
+        <v>0.1672101489348999</v>
       </c>
       <c r="G44">
-        <v>-0.1212160539406733</v>
+        <v>0.02357969327457236</v>
       </c>
       <c r="H44">
-        <v>0.0001403400786185636</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.01126937687565021</v>
+      </c>
+      <c r="I44">
+        <v>-0.06921259782319089</v>
+      </c>
+      <c r="J44">
+        <v>-0.01176365072103551</v>
+      </c>
+      <c r="K44">
+        <v>-0.0212338713203609</v>
+      </c>
+      <c r="L44">
+        <v>0.01946713366191547</v>
+      </c>
+      <c r="M44">
+        <v>0.08367022972066795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02647422601024141</v>
+        <v>0.0341780944836075</v>
       </c>
       <c r="C46">
-        <v>-0.05138185718293464</v>
+        <v>-0.0410966595085641</v>
       </c>
       <c r="D46">
-        <v>0.01534018515896414</v>
+        <v>0.0393137271692923</v>
       </c>
       <c r="E46">
-        <v>-0.04004429072544422</v>
+        <v>0.04423690149209739</v>
       </c>
       <c r="F46">
-        <v>-0.008670907398120986</v>
+        <v>0.04202053707809397</v>
       </c>
       <c r="G46">
-        <v>-0.002619577279245746</v>
+        <v>0.01082942615797043</v>
       </c>
       <c r="H46">
-        <v>0.002767797436169114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.004174133396258994</v>
+      </c>
+      <c r="I46">
+        <v>-0.03632597348458988</v>
+      </c>
+      <c r="J46">
+        <v>-0.01822250334736531</v>
+      </c>
+      <c r="K46">
+        <v>0.1183140603544595</v>
+      </c>
+      <c r="L46">
+        <v>-0.02967358446171234</v>
+      </c>
+      <c r="M46">
+        <v>-0.02485380962728512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02429782206416257</v>
+        <v>0.04083192266488259</v>
       </c>
       <c r="C47">
-        <v>-0.006009578903198395</v>
+        <v>-0.02682470075573339</v>
       </c>
       <c r="D47">
-        <v>-0.002091718055781842</v>
+        <v>0.01799975054131594</v>
       </c>
       <c r="E47">
-        <v>-0.06691876370379965</v>
+        <v>0.01545193839149544</v>
       </c>
       <c r="F47">
-        <v>-0.02399350498795828</v>
+        <v>0.03978759103488876</v>
       </c>
       <c r="G47">
-        <v>0.001471137851798892</v>
+        <v>-0.005286792182488533</v>
       </c>
       <c r="H47">
-        <v>-0.04250546792653438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.004560133364857094</v>
+      </c>
+      <c r="I47">
+        <v>0.01806857891996621</v>
+      </c>
+      <c r="J47">
+        <v>-0.01150282274831996</v>
+      </c>
+      <c r="K47">
+        <v>0.04367397704450208</v>
+      </c>
+      <c r="L47">
+        <v>0.007587411403343535</v>
+      </c>
+      <c r="M47">
+        <v>-0.06310552807732855</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03483632087749392</v>
+        <v>0.04255892413959848</v>
       </c>
       <c r="C48">
-        <v>-0.02412723942339316</v>
+        <v>-0.02256295345075907</v>
       </c>
       <c r="D48">
-        <v>-0.002320660774548144</v>
+        <v>0.01116032925925458</v>
       </c>
       <c r="E48">
-        <v>-0.05267865870246009</v>
+        <v>0.003740967145664838</v>
       </c>
       <c r="F48">
-        <v>-0.02309216556113648</v>
+        <v>0.06980221509131652</v>
       </c>
       <c r="G48">
-        <v>0.01646283118976383</v>
+        <v>0.0406962321381858</v>
       </c>
       <c r="H48">
-        <v>0.008789315312836778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.01505306165252661</v>
+      </c>
+      <c r="I48">
+        <v>0.006560741437391133</v>
+      </c>
+      <c r="J48">
+        <v>0.01031842930014297</v>
+      </c>
+      <c r="K48">
+        <v>0.05063556526156897</v>
+      </c>
+      <c r="L48">
+        <v>-0.04407242249398285</v>
+      </c>
+      <c r="M48">
+        <v>-0.04074776993184515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2137947998278241</v>
+        <v>0.2255750568627069</v>
       </c>
       <c r="C49">
-        <v>-0.1261272681377341</v>
+        <v>-0.08166506672253228</v>
       </c>
       <c r="D49">
-        <v>0.05408781487021384</v>
+        <v>-0.05184125448899925</v>
       </c>
       <c r="E49">
-        <v>0.05582194867479269</v>
+        <v>0.02664592705908797</v>
       </c>
       <c r="F49">
-        <v>0.1720458158075015</v>
+        <v>-0.2476991860205366</v>
       </c>
       <c r="G49">
-        <v>-0.03276523944516151</v>
+        <v>0.06700892315965178</v>
       </c>
       <c r="H49">
-        <v>0.04654044439404733</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1700626899571752</v>
+      </c>
+      <c r="I49">
+        <v>-0.09503798749451359</v>
+      </c>
+      <c r="J49">
+        <v>-0.06526653254719107</v>
+      </c>
+      <c r="K49">
+        <v>-0.1714840445581202</v>
+      </c>
+      <c r="L49">
+        <v>-0.02931005188443874</v>
+      </c>
+      <c r="M49">
+        <v>-0.09806595797257536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05437061600504</v>
+        <v>0.04655819690636229</v>
       </c>
       <c r="C50">
-        <v>-0.02776693248510091</v>
+        <v>-0.04027340244858005</v>
       </c>
       <c r="D50">
-        <v>-0.001506014481383684</v>
+        <v>0.001154381470289557</v>
       </c>
       <c r="E50">
-        <v>-0.02572973363505994</v>
+        <v>-0.009133455055783824</v>
       </c>
       <c r="F50">
-        <v>-0.04539199476014954</v>
+        <v>0.05320374685904683</v>
       </c>
       <c r="G50">
-        <v>0.04252194219609446</v>
+        <v>-0.02869765229665465</v>
       </c>
       <c r="H50">
-        <v>-0.03580766343105414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02824366123998276</v>
+      </c>
+      <c r="I50">
+        <v>0.01421639417760955</v>
+      </c>
+      <c r="J50">
+        <v>-0.01664313537310112</v>
+      </c>
+      <c r="K50">
+        <v>0.05549118707942353</v>
+      </c>
+      <c r="L50">
+        <v>-0.02303436873175823</v>
+      </c>
+      <c r="M50">
+        <v>0.01203052248428938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.03016756661410188</v>
+        <v>0.02660655244669915</v>
       </c>
       <c r="C51">
-        <v>-0.01651046154233074</v>
+        <v>-0.005734998333274257</v>
       </c>
       <c r="D51">
-        <v>0.003193200836024247</v>
+        <v>-0.0006669817610437992</v>
       </c>
       <c r="E51">
-        <v>-0.004088266037610589</v>
+        <v>0.01574678113752475</v>
       </c>
       <c r="F51">
-        <v>-0.01253179439082331</v>
+        <v>-0.02351692133393246</v>
       </c>
       <c r="G51">
-        <v>-0.006886738817340446</v>
+        <v>-0.007322428016780544</v>
       </c>
       <c r="H51">
-        <v>0.02049027314626759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.0006507442042084139</v>
+      </c>
+      <c r="I51">
+        <v>-0.01245072328380313</v>
+      </c>
+      <c r="J51">
+        <v>0.02147636417276582</v>
+      </c>
+      <c r="K51">
+        <v>-0.07450915668126834</v>
+      </c>
+      <c r="L51">
+        <v>-0.03210620023046327</v>
+      </c>
+      <c r="M51">
+        <v>0.00580954254697211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.03781269700285974</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.01216859644042181</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01702097546768099</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.003052880085358588</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.03031078259889405</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.04965805945673567</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.01273552147972965</v>
+      </c>
+      <c r="I52">
+        <v>0.001675458072264346</v>
+      </c>
+      <c r="J52">
+        <v>-0.0323789602561038</v>
+      </c>
+      <c r="K52">
+        <v>-0.01459666734400214</v>
+      </c>
+      <c r="L52">
+        <v>-0.01829406055128647</v>
+      </c>
+      <c r="M52">
+        <v>0.05533881743449469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1693251461746155</v>
+        <v>0.1607193807583213</v>
       </c>
       <c r="C53">
-        <v>-0.006749806292388541</v>
+        <v>-0.04728822145688221</v>
       </c>
       <c r="D53">
-        <v>0.02586430720081789</v>
+        <v>-0.01422553690380295</v>
       </c>
       <c r="E53">
-        <v>0.07625372572964619</v>
+        <v>-0.004905114813896147</v>
       </c>
       <c r="F53">
-        <v>-0.2450914177824492</v>
+        <v>-0.03581466923845584</v>
       </c>
       <c r="G53">
-        <v>0.03006710637628392</v>
+        <v>-0.2152357042623788</v>
       </c>
       <c r="H53">
-        <v>-0.0681981297952929</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1778355668904598</v>
+      </c>
+      <c r="I53">
+        <v>-0.01631502300556174</v>
+      </c>
+      <c r="J53">
+        <v>-0.1076882620964522</v>
+      </c>
+      <c r="K53">
+        <v>0.0140227930983817</v>
+      </c>
+      <c r="L53">
+        <v>0.01929527928389635</v>
+      </c>
+      <c r="M53">
+        <v>0.09093610138667194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04968140990316434</v>
+        <v>0.05528743161428058</v>
       </c>
       <c r="C54">
-        <v>-0.03662022738148513</v>
+        <v>-0.04041616963437802</v>
       </c>
       <c r="D54">
-        <v>0.02968356400143823</v>
+        <v>0.01573199786343121</v>
       </c>
       <c r="E54">
-        <v>-0.05213295696218285</v>
+        <v>0.03488392203935662</v>
       </c>
       <c r="F54">
-        <v>-0.01697296823912982</v>
+        <v>0.1090356312427144</v>
       </c>
       <c r="G54">
-        <v>-0.006455150104487804</v>
+        <v>0.04951746600481128</v>
       </c>
       <c r="H54">
-        <v>-0.001966748055103844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.02463756706169874</v>
+      </c>
+      <c r="I54">
+        <v>0.01965685637599975</v>
+      </c>
+      <c r="J54">
+        <v>0.02954985100983162</v>
+      </c>
+      <c r="K54">
+        <v>0.1418769948328774</v>
+      </c>
+      <c r="L54">
+        <v>-0.01143911680095423</v>
+      </c>
+      <c r="M54">
+        <v>-0.05242347319917645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09039091989245727</v>
+        <v>0.0845847178392144</v>
       </c>
       <c r="C55">
-        <v>-0.006025560784326964</v>
+        <v>-0.03744083718160332</v>
       </c>
       <c r="D55">
-        <v>0.01920137817859111</v>
+        <v>-0.02858563959430345</v>
       </c>
       <c r="E55">
-        <v>0.01581894746669956</v>
+        <v>0.009817150918736164</v>
       </c>
       <c r="F55">
-        <v>-0.1985632999844159</v>
+        <v>0.01674910315449939</v>
       </c>
       <c r="G55">
-        <v>0.03561560051087911</v>
+        <v>-0.1121168673151301</v>
       </c>
       <c r="H55">
-        <v>-0.07712937414389316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1412650665290163</v>
+      </c>
+      <c r="I55">
+        <v>-0.01595820506268724</v>
+      </c>
+      <c r="J55">
+        <v>-0.05572725465645058</v>
+      </c>
+      <c r="K55">
+        <v>0.009550786583649445</v>
+      </c>
+      <c r="L55">
+        <v>0.002701428996977807</v>
+      </c>
+      <c r="M55">
+        <v>-0.01733112582442045</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1625530152492537</v>
+        <v>0.1509695673111283</v>
       </c>
       <c r="C56">
-        <v>-0.009984926070654352</v>
+        <v>-0.06853873026300099</v>
       </c>
       <c r="D56">
-        <v>0.02955346770047636</v>
+        <v>-0.03314759415362655</v>
       </c>
       <c r="E56">
-        <v>0.08199154398964613</v>
+        <v>0.01551658669078909</v>
       </c>
       <c r="F56">
-        <v>-0.2155750040683768</v>
+        <v>-0.01590082255128206</v>
       </c>
       <c r="G56">
-        <v>0.07795420074850072</v>
+        <v>-0.1930372377551837</v>
       </c>
       <c r="H56">
-        <v>-0.05339013388996417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1715584518742455</v>
+      </c>
+      <c r="I56">
+        <v>-0.02054599631744157</v>
+      </c>
+      <c r="J56">
+        <v>-0.07841755476116023</v>
+      </c>
+      <c r="K56">
+        <v>0.008201256646628826</v>
+      </c>
+      <c r="L56">
+        <v>0.0603624031907825</v>
+      </c>
+      <c r="M56">
+        <v>0.03723822310702873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02194023985886026</v>
+        <v>0.03826393551403776</v>
       </c>
       <c r="C58">
-        <v>-0.04212172855475985</v>
+        <v>-0.03317716372974545</v>
       </c>
       <c r="D58">
-        <v>-0.04798790964108066</v>
+        <v>0.08315149808496455</v>
       </c>
       <c r="E58">
-        <v>-0.3767125150067316</v>
+        <v>0.004935431667888215</v>
       </c>
       <c r="F58">
-        <v>0.3476657203719949</v>
+        <v>0.0618365694283213</v>
       </c>
       <c r="G58">
-        <v>0.09247491170668634</v>
+        <v>0.0290298358619144</v>
       </c>
       <c r="H58">
-        <v>-0.2312039614494361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1433857883916377</v>
+      </c>
+      <c r="I58">
+        <v>0.01168792089924759</v>
+      </c>
+      <c r="J58">
+        <v>0.1466056263634631</v>
+      </c>
+      <c r="K58">
+        <v>-0.03188853994438589</v>
+      </c>
+      <c r="L58">
+        <v>-0.4520573483137035</v>
+      </c>
+      <c r="M58">
+        <v>0.008889466481740384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2223045564011417</v>
+        <v>0.2280430105768741</v>
       </c>
       <c r="C59">
-        <v>0.3961367456627887</v>
+        <v>0.2952820015260678</v>
       </c>
       <c r="D59">
-        <v>0.07512824696271524</v>
+        <v>-0.04293179358114046</v>
       </c>
       <c r="E59">
-        <v>0.002641815987760742</v>
+        <v>0.01145019070092881</v>
       </c>
       <c r="F59">
-        <v>-0.05160102661967356</v>
+        <v>0.01602891110129615</v>
       </c>
       <c r="G59">
-        <v>-0.04545108803233416</v>
+        <v>-0.03025711771704563</v>
       </c>
       <c r="H59">
-        <v>0.05461657193593655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1099206841297703</v>
+      </c>
+      <c r="I59">
+        <v>-0.02401488150116294</v>
+      </c>
+      <c r="J59">
+        <v>0.03392956279438993</v>
+      </c>
+      <c r="K59">
+        <v>-0.09994282410016597</v>
+      </c>
+      <c r="L59">
+        <v>0.06893320464484376</v>
+      </c>
+      <c r="M59">
+        <v>0.05604276192634269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2554645018669114</v>
+        <v>0.239668782785621</v>
       </c>
       <c r="C60">
-        <v>-0.07746607592844793</v>
+        <v>-0.1250425016190143</v>
       </c>
       <c r="D60">
-        <v>0.07231282911477316</v>
+        <v>-0.06199966399840651</v>
       </c>
       <c r="E60">
-        <v>0.001717010842814466</v>
+        <v>0.03941849676242069</v>
       </c>
       <c r="F60">
-        <v>0.04682070102323806</v>
+        <v>-0.1170217522361047</v>
       </c>
       <c r="G60">
-        <v>0.03126937000840155</v>
+        <v>0.004772988701922383</v>
       </c>
       <c r="H60">
-        <v>-0.06537363916902143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.078026080184977</v>
+      </c>
+      <c r="I60">
+        <v>0.1289972758337876</v>
+      </c>
+      <c r="J60">
+        <v>-0.1726530656196171</v>
+      </c>
+      <c r="K60">
+        <v>-0.1787351465393825</v>
+      </c>
+      <c r="L60">
+        <v>-0.002383759800220126</v>
+      </c>
+      <c r="M60">
+        <v>0.05232838759729803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08619933422734836</v>
+        <v>0.1021959452609447</v>
       </c>
       <c r="C61">
-        <v>-0.04854392631361752</v>
+        <v>-0.06666112091982029</v>
       </c>
       <c r="D61">
-        <v>0.001881281097392851</v>
+        <v>-0.045707255246195</v>
       </c>
       <c r="E61">
-        <v>-0.003865492929449504</v>
+        <v>0.01065954398823953</v>
       </c>
       <c r="F61">
-        <v>-0.0178210111545902</v>
+        <v>0.1519005059558068</v>
       </c>
       <c r="G61">
-        <v>-0.02983918606776154</v>
+        <v>-0.0580755638328574</v>
       </c>
       <c r="H61">
-        <v>0.06477936851556977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.0290698799442287</v>
+      </c>
+      <c r="I61">
+        <v>-0.0684590279472381</v>
+      </c>
+      <c r="J61">
+        <v>0.08612549761976349</v>
+      </c>
+      <c r="K61">
+        <v>-0.01363101321074229</v>
+      </c>
+      <c r="L61">
+        <v>-0.05081653535574353</v>
+      </c>
+      <c r="M61">
+        <v>0.003685938253785936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1567994956982733</v>
+        <v>0.1425262079664423</v>
       </c>
       <c r="C62">
-        <v>-0.03866418562004423</v>
+        <v>-0.07055890360413759</v>
       </c>
       <c r="D62">
-        <v>-0.01150347139541518</v>
+        <v>-0.03141877068789274</v>
       </c>
       <c r="E62">
-        <v>0.1428202047771359</v>
+        <v>-0.03053840665354263</v>
       </c>
       <c r="F62">
-        <v>-0.2174932207630906</v>
+        <v>-0.03149917110902457</v>
       </c>
       <c r="G62">
-        <v>0.01173977530690094</v>
+        <v>-0.1451114275084281</v>
       </c>
       <c r="H62">
-        <v>-0.01395274076944709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1656713934175308</v>
+      </c>
+      <c r="I62">
+        <v>-0.03370193210662591</v>
+      </c>
+      <c r="J62">
+        <v>-0.1186703861102665</v>
+      </c>
+      <c r="K62">
+        <v>0.06302536381532971</v>
+      </c>
+      <c r="L62">
+        <v>0.07319244251342731</v>
+      </c>
+      <c r="M62">
+        <v>-0.03381362494828427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03668942585469089</v>
+        <v>0.04607917119522135</v>
       </c>
       <c r="C63">
-        <v>-0.03936933950403351</v>
+        <v>-0.02982801942489584</v>
       </c>
       <c r="D63">
-        <v>0.002084324215092288</v>
+        <v>-0.003591675800730138</v>
       </c>
       <c r="E63">
-        <v>-0.0002605060284289569</v>
+        <v>-0.01160121324032908</v>
       </c>
       <c r="F63">
-        <v>-0.01645549893741155</v>
+        <v>0.07040547923081061</v>
       </c>
       <c r="G63">
-        <v>-0.006120898550783271</v>
+        <v>0.01140026866200108</v>
       </c>
       <c r="H63">
-        <v>-0.04150051729371328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.009654588984126274</v>
+      </c>
+      <c r="I63">
+        <v>-0.009041446948127729</v>
+      </c>
+      <c r="J63">
+        <v>0.01095194864386033</v>
+      </c>
+      <c r="K63">
+        <v>0.04065546146395427</v>
+      </c>
+      <c r="L63">
+        <v>-0.04438577973658728</v>
+      </c>
+      <c r="M63">
+        <v>-0.04081459154183215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1058318713746584</v>
+        <v>0.09905299872398265</v>
       </c>
       <c r="C64">
-        <v>-0.03246594026688469</v>
+        <v>-0.04680741584698581</v>
       </c>
       <c r="D64">
-        <v>0.03986434173307973</v>
+        <v>0.005839625348402534</v>
       </c>
       <c r="E64">
-        <v>-0.04381989639542587</v>
+        <v>0.04238975139990355</v>
       </c>
       <c r="F64">
-        <v>0.006597462574907674</v>
+        <v>0.07733458801069708</v>
       </c>
       <c r="G64">
-        <v>-0.05548477053702816</v>
+        <v>-0.007308576150659365</v>
       </c>
       <c r="H64">
-        <v>0.03788666347405368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.09099649559248132</v>
+      </c>
+      <c r="I64">
+        <v>0.01468705233554431</v>
+      </c>
+      <c r="J64">
+        <v>0.02845967775089868</v>
+      </c>
+      <c r="K64">
+        <v>0.003072320640521684</v>
+      </c>
+      <c r="L64">
+        <v>0.002547072500289565</v>
+      </c>
+      <c r="M64">
+        <v>0.02124387981471946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.125984994474253</v>
+        <v>0.124982285997252</v>
       </c>
       <c r="C65">
-        <v>-0.05346453845479825</v>
+        <v>-0.04998565291218558</v>
       </c>
       <c r="D65">
-        <v>0.02963964754811121</v>
+        <v>-0.01488211348699314</v>
       </c>
       <c r="E65">
-        <v>-0.08794842189384358</v>
+        <v>-0.0300221540563504</v>
       </c>
       <c r="F65">
-        <v>0.1520030695375319</v>
+        <v>-0.01477846160491254</v>
       </c>
       <c r="G65">
-        <v>0.08878201144135967</v>
+        <v>0.1090788355564618</v>
       </c>
       <c r="H65">
-        <v>-0.6372583216915969</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.06295931308066097</v>
+      </c>
+      <c r="I65">
+        <v>0.5771515705554139</v>
+      </c>
+      <c r="J65">
+        <v>-0.3426575404946514</v>
+      </c>
+      <c r="K65">
+        <v>0.1538461811136588</v>
+      </c>
+      <c r="L65">
+        <v>-0.2022541160232862</v>
+      </c>
+      <c r="M65">
+        <v>0.04995235076628667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1563877013552204</v>
+        <v>0.1334249948544829</v>
       </c>
       <c r="C66">
-        <v>-0.1145793385846766</v>
+        <v>-0.1302387536204646</v>
       </c>
       <c r="D66">
-        <v>-0.007699282059374782</v>
+        <v>-0.09803511969437544</v>
       </c>
       <c r="E66">
-        <v>0.007099590214925251</v>
+        <v>-0.04288927696886636</v>
       </c>
       <c r="F66">
-        <v>-0.04036277196336022</v>
+        <v>0.1925450347814417</v>
       </c>
       <c r="G66">
-        <v>-0.1970614978878438</v>
+        <v>-0.07360339439968418</v>
       </c>
       <c r="H66">
-        <v>0.21710301622601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.106130408528999</v>
+      </c>
+      <c r="I66">
+        <v>-0.1152423482351842</v>
+      </c>
+      <c r="J66">
+        <v>0.1047054198025804</v>
+      </c>
+      <c r="K66">
+        <v>-0.1538787378520149</v>
+      </c>
+      <c r="L66">
+        <v>-0.02846235673408055</v>
+      </c>
+      <c r="M66">
+        <v>0.1163395990499245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08797202702370771</v>
+        <v>0.07553424519464218</v>
       </c>
       <c r="C67">
-        <v>-0.0577243836533825</v>
+        <v>-0.05708882019461371</v>
       </c>
       <c r="D67">
-        <v>0.01929465992946422</v>
+        <v>0.02017420076995871</v>
       </c>
       <c r="E67">
-        <v>-0.01274119398443229</v>
+        <v>0.02578052410234164</v>
       </c>
       <c r="F67">
-        <v>-0.03904665568993569</v>
+        <v>-0.04810428246831079</v>
       </c>
       <c r="G67">
-        <v>-0.02143475888955047</v>
+        <v>-0.08536746135709368</v>
       </c>
       <c r="H67">
-        <v>0.03959273806354478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.007467659395730987</v>
+      </c>
+      <c r="I67">
+        <v>-0.00907001142938159</v>
+      </c>
+      <c r="J67">
+        <v>0.024490105596519</v>
+      </c>
+      <c r="K67">
+        <v>-0.01218043498754814</v>
+      </c>
+      <c r="L67">
+        <v>0.1588041465740719</v>
+      </c>
+      <c r="M67">
+        <v>0.05285386317587493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09241993732016722</v>
+        <v>0.1242587956161844</v>
       </c>
       <c r="C68">
-        <v>0.2822626305252187</v>
+        <v>0.2708814815895921</v>
       </c>
       <c r="D68">
-        <v>0.02463441325158443</v>
+        <v>-0.008699461915605102</v>
       </c>
       <c r="E68">
-        <v>-0.02430708486344461</v>
+        <v>6.127742074490112e-05</v>
       </c>
       <c r="F68">
-        <v>-0.02697962118201462</v>
+        <v>0.03983718049350061</v>
       </c>
       <c r="G68">
-        <v>0.03923580765715132</v>
+        <v>-0.02641089325655394</v>
       </c>
       <c r="H68">
-        <v>-0.02428832509802646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.001747429832648516</v>
+      </c>
+      <c r="I68">
+        <v>0.03344106105275771</v>
+      </c>
+      <c r="J68">
+        <v>-0.02711026050044641</v>
+      </c>
+      <c r="K68">
+        <v>0.02785035915312304</v>
+      </c>
+      <c r="L68">
+        <v>-0.04696931178668702</v>
+      </c>
+      <c r="M68">
+        <v>-0.0002183233206002845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03273639844961036</v>
+        <v>0.04478338900107745</v>
       </c>
       <c r="C69">
-        <v>-0.02622618273729705</v>
+        <v>-0.02017032017971246</v>
       </c>
       <c r="D69">
-        <v>0.006364388378684699</v>
+        <v>0.004947980303910447</v>
       </c>
       <c r="E69">
-        <v>-0.005751136866720963</v>
+        <v>0.004835776941497397</v>
       </c>
       <c r="F69">
-        <v>-0.02681072573237773</v>
+        <v>0.02387973592128061</v>
       </c>
       <c r="G69">
-        <v>-0.03540689659796706</v>
+        <v>-0.02624930819381312</v>
       </c>
       <c r="H69">
-        <v>-0.009801256940852123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.002158264204475447</v>
+      </c>
+      <c r="I69">
+        <v>-0.0008713109168363615</v>
+      </c>
+      <c r="J69">
+        <v>0.008598668189389327</v>
+      </c>
+      <c r="K69">
+        <v>0.01679025864646778</v>
+      </c>
+      <c r="L69">
+        <v>0.01283189409231856</v>
+      </c>
+      <c r="M69">
+        <v>-0.06660730771662622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05735298629505588</v>
+        <v>0.0533718345307496</v>
       </c>
       <c r="C70">
-        <v>-0.008522708740811092</v>
+        <v>-0.02649025733850163</v>
       </c>
       <c r="D70">
-        <v>0.03733686574750735</v>
+        <v>-0.02802215040071393</v>
       </c>
       <c r="E70">
-        <v>0.007726628923187759</v>
+        <v>0.03861201022748155</v>
       </c>
       <c r="F70">
-        <v>0.09991815506741848</v>
+        <v>0.01100650916784966</v>
       </c>
       <c r="G70">
-        <v>0.03179128947542954</v>
+        <v>0.04772581288809503</v>
       </c>
       <c r="H70">
-        <v>0.04451671453282882</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.04756819211882963</v>
+      </c>
+      <c r="I70">
+        <v>0.02331142019162298</v>
+      </c>
+      <c r="J70">
+        <v>0.1034533612264849</v>
+      </c>
+      <c r="K70">
+        <v>0.3161349031964858</v>
+      </c>
+      <c r="L70">
+        <v>0.1908361360315734</v>
+      </c>
+      <c r="M70">
+        <v>0.02790006604762379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.09850110285841236</v>
+        <v>0.1387070697808472</v>
       </c>
       <c r="C71">
-        <v>0.2764835453304768</v>
+        <v>0.2799418822171916</v>
       </c>
       <c r="D71">
-        <v>0.05565720065362943</v>
+        <v>-0.01298604482781207</v>
       </c>
       <c r="E71">
-        <v>-0.01298424198271632</v>
+        <v>0.01664787374249195</v>
       </c>
       <c r="F71">
-        <v>0.004192198252310148</v>
+        <v>0.03972102291885952</v>
       </c>
       <c r="G71">
-        <v>0.01331401606981369</v>
+        <v>-0.02752805101824654</v>
       </c>
       <c r="H71">
-        <v>0.002214244070173989</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02321546697735048</v>
+      </c>
+      <c r="I71">
+        <v>0.01159018626639087</v>
+      </c>
+      <c r="J71">
+        <v>-0.008905286197372851</v>
+      </c>
+      <c r="K71">
+        <v>0.003682546123833825</v>
+      </c>
+      <c r="L71">
+        <v>-0.02481423027814612</v>
+      </c>
+      <c r="M71">
+        <v>-0.005930614867467504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1819681880489007</v>
+        <v>0.1483172518940877</v>
       </c>
       <c r="C72">
-        <v>-0.01162589951700668</v>
+        <v>-0.0273689047889592</v>
       </c>
       <c r="D72">
-        <v>-0.2425118634989866</v>
+        <v>0.001032333707702553</v>
       </c>
       <c r="E72">
-        <v>0.04168083186072202</v>
+        <v>-0.1796126272582051</v>
       </c>
       <c r="F72">
-        <v>-0.07236312262764928</v>
+        <v>0.04755044066665777</v>
       </c>
       <c r="G72">
-        <v>-0.06340718844618866</v>
+        <v>-0.04252035569629341</v>
       </c>
       <c r="H72">
-        <v>-0.117059779590297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.03406084371532986</v>
+      </c>
+      <c r="I72">
+        <v>0.08748887213861287</v>
+      </c>
+      <c r="J72">
+        <v>-0.1098209905978716</v>
+      </c>
+      <c r="K72">
+        <v>-0.03207028834846624</v>
+      </c>
+      <c r="L72">
+        <v>0.02996164279662305</v>
+      </c>
+      <c r="M72">
+        <v>0.02875788884250748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2924619449181205</v>
+        <v>0.2414959758253394</v>
       </c>
       <c r="C73">
-        <v>-0.1903062127188108</v>
+        <v>-0.1531126525336659</v>
       </c>
       <c r="D73">
-        <v>0.1039693529481314</v>
+        <v>-0.1385475473085538</v>
       </c>
       <c r="E73">
-        <v>0.02397997546484723</v>
+        <v>0.08357620999832049</v>
       </c>
       <c r="F73">
-        <v>0.1874749911632527</v>
+        <v>-0.431811135521528</v>
       </c>
       <c r="G73">
-        <v>0.02419456088614459</v>
+        <v>-0.02189612877946805</v>
       </c>
       <c r="H73">
-        <v>-0.157653607660346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.3291695659766672</v>
+      </c>
+      <c r="I73">
+        <v>-0.06039433856194728</v>
+      </c>
+      <c r="J73">
+        <v>-0.005896852273788399</v>
+      </c>
+      <c r="K73">
+        <v>-0.3438435743869532</v>
+      </c>
+      <c r="L73">
+        <v>-0.1260378079595982</v>
+      </c>
+      <c r="M73">
+        <v>0.1292603852700277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09246876412793319</v>
+        <v>0.0991245971109429</v>
       </c>
       <c r="C74">
-        <v>-0.03623595583393972</v>
+        <v>-0.07170200682748461</v>
       </c>
       <c r="D74">
-        <v>0.006241965972403478</v>
+        <v>-0.01119805124241514</v>
       </c>
       <c r="E74">
-        <v>0.01770818122702258</v>
+        <v>-0.01000938656337747</v>
       </c>
       <c r="F74">
-        <v>-0.1202598270824707</v>
+        <v>-0.01056706632667201</v>
       </c>
       <c r="G74">
-        <v>0.05005489057334899</v>
+        <v>-0.1521568350085547</v>
       </c>
       <c r="H74">
-        <v>-0.06814956009352492</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.048275897527491</v>
+      </c>
+      <c r="I74">
+        <v>-0.02021233232635993</v>
+      </c>
+      <c r="J74">
+        <v>-0.05186136377941222</v>
+      </c>
+      <c r="K74">
+        <v>0.002597198352998594</v>
+      </c>
+      <c r="L74">
+        <v>-0.007420074867582362</v>
+      </c>
+      <c r="M74">
+        <v>0.00511332428285165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.08894146535124119</v>
+        <v>0.09589053039641897</v>
       </c>
       <c r="C75">
-        <v>-0.01840032618781557</v>
+        <v>-0.05206459042199026</v>
       </c>
       <c r="D75">
-        <v>0.008347814400863136</v>
+        <v>-0.008208222394880752</v>
       </c>
       <c r="E75">
-        <v>0.04483184266941923</v>
+        <v>-0.009877341298910318</v>
       </c>
       <c r="F75">
-        <v>-0.1075442935347362</v>
+        <v>-0.01616112913150392</v>
       </c>
       <c r="G75">
-        <v>0.05222597582112292</v>
+        <v>-0.08144085319451905</v>
       </c>
       <c r="H75">
-        <v>-0.01495559103917927</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1174589311098856</v>
+      </c>
+      <c r="I75">
+        <v>0.003136250785934365</v>
+      </c>
+      <c r="J75">
+        <v>-0.03119272786840419</v>
+      </c>
+      <c r="K75">
+        <v>0.003891023257873973</v>
+      </c>
+      <c r="L75">
+        <v>0.02151336304936413</v>
+      </c>
+      <c r="M75">
+        <v>-0.05996060401779668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1292215647147887</v>
+        <v>0.07848467326135448</v>
       </c>
       <c r="C76">
-        <v>-0.0279466159890284</v>
+        <v>-0.05853539693965989</v>
       </c>
       <c r="D76">
-        <v>0.02048044154417267</v>
+        <v>-0.002575897226639739</v>
       </c>
       <c r="E76">
-        <v>0.02178284320254505</v>
+        <v>0.01019264990967424</v>
       </c>
       <c r="F76">
-        <v>-0.2251742755643273</v>
+        <v>-0.05111771429353584</v>
       </c>
       <c r="G76">
-        <v>0.08173083056260312</v>
+        <v>-0.1424264385926655</v>
       </c>
       <c r="H76">
-        <v>-0.07797601882290435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1579353657251991</v>
+      </c>
+      <c r="I76">
+        <v>-0.03002568792192271</v>
+      </c>
+      <c r="J76">
+        <v>-0.02319741048837904</v>
+      </c>
+      <c r="K76">
+        <v>0.02461086521002798</v>
+      </c>
+      <c r="L76">
+        <v>0.01037388493395445</v>
+      </c>
+      <c r="M76">
+        <v>0.03365370408112434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07171929455478097</v>
+        <v>0.06899832879352152</v>
       </c>
       <c r="C77">
-        <v>-0.02018302508684123</v>
+        <v>-0.02430712509266</v>
       </c>
       <c r="D77">
-        <v>0.01250177329941515</v>
+        <v>-0.02111954593974497</v>
       </c>
       <c r="E77">
-        <v>-0.1499797989644271</v>
+        <v>0.05118966713009022</v>
       </c>
       <c r="F77">
-        <v>0.09984950742954427</v>
+        <v>0.2486747499316643</v>
       </c>
       <c r="G77">
-        <v>-0.6732034123403817</v>
+        <v>0.1335514820395063</v>
       </c>
       <c r="H77">
-        <v>0.05343833910907279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1658494684700077</v>
+      </c>
+      <c r="I77">
+        <v>0.2621904440947878</v>
+      </c>
+      <c r="J77">
+        <v>0.06715314258887978</v>
+      </c>
+      <c r="K77">
+        <v>-0.3223510429284521</v>
+      </c>
+      <c r="L77">
+        <v>0.6277645837787749</v>
+      </c>
+      <c r="M77">
+        <v>0.04729797618944737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1533973972590336</v>
+        <v>0.1535497046571679</v>
       </c>
       <c r="C78">
-        <v>-0.08790451807878616</v>
+        <v>-0.1130531613951405</v>
       </c>
       <c r="D78">
-        <v>0.02781942879618934</v>
+        <v>0.1923243306626428</v>
       </c>
       <c r="E78">
-        <v>-0.1999063247499501</v>
+        <v>0.1032518760734625</v>
       </c>
       <c r="F78">
-        <v>0.0007807965598629557</v>
+        <v>0.03421335496171522</v>
       </c>
       <c r="G78">
-        <v>-0.04251682696972217</v>
+        <v>0.4922059682939571</v>
       </c>
       <c r="H78">
-        <v>0.05809666440222212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5985123272798726</v>
+      </c>
+      <c r="I78">
+        <v>0.09047665549246421</v>
+      </c>
+      <c r="J78">
+        <v>0.2108029237494021</v>
+      </c>
+      <c r="K78">
+        <v>-0.2954196771120363</v>
+      </c>
+      <c r="L78">
+        <v>-0.108803003953157</v>
+      </c>
+      <c r="M78">
+        <v>0.2037330423974488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1369911573220965</v>
+        <v>0.134803655621145</v>
       </c>
       <c r="C79">
-        <v>-0.04356668290592684</v>
+        <v>-0.0762478206768803</v>
       </c>
       <c r="D79">
-        <v>0.01140133357698915</v>
+        <v>-0.002863458651671379</v>
       </c>
       <c r="E79">
-        <v>0.05770823532178109</v>
+        <v>0.003100964926623814</v>
       </c>
       <c r="F79">
-        <v>-0.1554622463695804</v>
+        <v>0.01337558547338615</v>
       </c>
       <c r="G79">
-        <v>0.03995676665152016</v>
+        <v>-0.1386822313360316</v>
       </c>
       <c r="H79">
-        <v>-0.01119975407601688</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1168972666018024</v>
+      </c>
+      <c r="I79">
+        <v>-0.02530495838294292</v>
+      </c>
+      <c r="J79">
+        <v>-0.08306129569879858</v>
+      </c>
+      <c r="K79">
+        <v>0.01756056038970092</v>
+      </c>
+      <c r="L79">
+        <v>0.03687106097585219</v>
+      </c>
+      <c r="M79">
+        <v>-0.03919289605514972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02983211988378156</v>
+        <v>0.0574124532722286</v>
       </c>
       <c r="C80">
-        <v>-0.008047361622197475</v>
+        <v>-0.02383790608129695</v>
       </c>
       <c r="D80">
-        <v>0.01013899427183618</v>
+        <v>-0.07311489533059146</v>
       </c>
       <c r="E80">
-        <v>0.03849594025117931</v>
+        <v>0.01966206809278589</v>
       </c>
       <c r="F80">
-        <v>-0.004444987394615751</v>
+        <v>0.03877914798461788</v>
       </c>
       <c r="G80">
-        <v>-0.02258803883001189</v>
+        <v>0.01740971457954522</v>
       </c>
       <c r="H80">
-        <v>-0.08074972951339447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.0105275737473538</v>
+      </c>
+      <c r="I80">
+        <v>0.02480210785340483</v>
+      </c>
+      <c r="J80">
+        <v>0.02332337004122475</v>
+      </c>
+      <c r="K80">
+        <v>0.1288069941579215</v>
+      </c>
+      <c r="L80">
+        <v>-0.1326999581609819</v>
+      </c>
+      <c r="M80">
+        <v>0.005613689213443479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1011051929769777</v>
+        <v>0.1212405025709681</v>
       </c>
       <c r="C81">
-        <v>-0.03583953700853626</v>
+        <v>-0.0684590374494842</v>
       </c>
       <c r="D81">
-        <v>0.025032745106147</v>
+        <v>-0.001606735660120916</v>
       </c>
       <c r="E81">
-        <v>0.06664272615818448</v>
+        <v>0.001818006313176284</v>
       </c>
       <c r="F81">
-        <v>-0.1309960162124292</v>
+        <v>0.02165858195926496</v>
       </c>
       <c r="G81">
-        <v>0.03316217770724506</v>
+        <v>-0.09901271243082925</v>
       </c>
       <c r="H81">
-        <v>-0.0001955212296131624</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.1069677767550952</v>
+      </c>
+      <c r="I81">
+        <v>-0.04006885988032692</v>
+      </c>
+      <c r="J81">
+        <v>-0.05907911776171006</v>
+      </c>
+      <c r="K81">
+        <v>0.007845682711561282</v>
+      </c>
+      <c r="L81">
+        <v>0.02639318337466614</v>
+      </c>
+      <c r="M81">
+        <v>-0.1177873691316613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.109449078240961</v>
+        <v>0.1239282004702091</v>
       </c>
       <c r="C82">
-        <v>-0.03097349464631432</v>
+        <v>-0.05242603242673001</v>
       </c>
       <c r="D82">
-        <v>0.07153763488153889</v>
+        <v>-0.02711191951582886</v>
       </c>
       <c r="E82">
-        <v>0.07886746628584722</v>
+        <v>0.00262813517818914</v>
       </c>
       <c r="F82">
-        <v>-0.2389339233700359</v>
+        <v>0.00446826095314607</v>
       </c>
       <c r="G82">
-        <v>0.04943523502806412</v>
+        <v>-0.2030754173471962</v>
       </c>
       <c r="H82">
-        <v>-0.005685412574249506</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.141589287026963</v>
+      </c>
+      <c r="I82">
+        <v>-0.1118890610891459</v>
+      </c>
+      <c r="J82">
+        <v>-0.02096908902921031</v>
+      </c>
+      <c r="K82">
+        <v>0.06595601501602716</v>
+      </c>
+      <c r="L82">
+        <v>0.04786222275329007</v>
+      </c>
+      <c r="M82">
+        <v>-0.05299264469870135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.07827980590001624</v>
+        <v>0.07501857040521857</v>
       </c>
       <c r="C83">
-        <v>-0.06223717250092736</v>
+        <v>-0.07100708805295446</v>
       </c>
       <c r="D83">
-        <v>0.04106476097438463</v>
+        <v>-0.03204323217787728</v>
       </c>
       <c r="E83">
-        <v>-0.008531390741975195</v>
+        <v>0.01846444080320131</v>
       </c>
       <c r="F83">
-        <v>0.04131172637700809</v>
+        <v>0.05104614195560823</v>
       </c>
       <c r="G83">
-        <v>-0.05225748559793795</v>
+        <v>-0.0733510355908593</v>
       </c>
       <c r="H83">
-        <v>0.06155279037662944</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.08073969315533247</v>
+      </c>
+      <c r="I83">
+        <v>0.01941418710851325</v>
+      </c>
+      <c r="J83">
+        <v>0.1038608268570207</v>
+      </c>
+      <c r="K83">
+        <v>0.09211588443700418</v>
+      </c>
+      <c r="L83">
+        <v>0.03493600233174846</v>
+      </c>
+      <c r="M83">
+        <v>0.0720610486571422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05360053349089557</v>
+        <v>0.05542228648166404</v>
       </c>
       <c r="C84">
-        <v>-0.04688357414579697</v>
+        <v>0.01582291034764128</v>
       </c>
       <c r="D84">
-        <v>-0.05202427445137053</v>
+        <v>0.0003902347488011065</v>
       </c>
       <c r="E84">
-        <v>-0.01324202641910137</v>
+        <v>-0.0257480751009988</v>
       </c>
       <c r="F84">
-        <v>-0.04645856035489621</v>
+        <v>0.01161610934504452</v>
       </c>
       <c r="G84">
-        <v>0.1448946524626279</v>
+        <v>0.1869333905490998</v>
       </c>
       <c r="H84">
-        <v>0.02107845333756076</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.04752341931665205</v>
+      </c>
+      <c r="I84">
+        <v>-0.2604507747695541</v>
+      </c>
+      <c r="J84">
+        <v>-0.01617301898400668</v>
+      </c>
+      <c r="K84">
+        <v>0.09549965464726214</v>
+      </c>
+      <c r="L84">
+        <v>-0.1650067806679891</v>
+      </c>
+      <c r="M84">
+        <v>0.3831609539496046</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08986102860205583</v>
+        <v>0.1107735276603879</v>
       </c>
       <c r="C85">
-        <v>-0.03806608848172219</v>
+        <v>-0.05238475273409927</v>
       </c>
       <c r="D85">
-        <v>0.04566571768256687</v>
+        <v>-0.01255131806853141</v>
       </c>
       <c r="E85">
-        <v>0.03802250346997496</v>
+        <v>0.03222760252836197</v>
       </c>
       <c r="F85">
-        <v>-0.1780552321135729</v>
+        <v>0.0150861310352381</v>
       </c>
       <c r="G85">
-        <v>0.002305552074195001</v>
+        <v>-0.1447958113490478</v>
       </c>
       <c r="H85">
-        <v>-0.05598823250398798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1207948287908384</v>
+      </c>
+      <c r="I85">
+        <v>-0.02002730027921167</v>
+      </c>
+      <c r="J85">
+        <v>-0.09587573903051839</v>
+      </c>
+      <c r="K85">
+        <v>0.002215392373487622</v>
+      </c>
+      <c r="L85">
+        <v>0.04494397546552679</v>
+      </c>
+      <c r="M85">
+        <v>-0.05661328457473502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04267337028978002</v>
+        <v>0.07470154054168818</v>
       </c>
       <c r="C86">
-        <v>-0.04106436798862271</v>
+        <v>-0.03362480939982156</v>
       </c>
       <c r="D86">
-        <v>0.02963010782643764</v>
+        <v>0.01943644306005304</v>
       </c>
       <c r="E86">
-        <v>-0.0314656086209997</v>
+        <v>0.1167858186160162</v>
       </c>
       <c r="F86">
-        <v>0.005855393746689483</v>
+        <v>0.01925006478484234</v>
       </c>
       <c r="G86">
-        <v>-0.06747685299955901</v>
+        <v>0.4008744875057038</v>
       </c>
       <c r="H86">
-        <v>-0.1204430295692343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.05539046032726812</v>
+      </c>
+      <c r="I86">
+        <v>-0.4510311675943808</v>
+      </c>
+      <c r="J86">
+        <v>-0.5975764816519323</v>
+      </c>
+      <c r="K86">
+        <v>0.1431601474357017</v>
+      </c>
+      <c r="L86">
+        <v>0.1423216061109147</v>
+      </c>
+      <c r="M86">
+        <v>0.0879737883526408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.08742118805379609</v>
+        <v>0.1094734588901938</v>
       </c>
       <c r="C87">
-        <v>-0.05915652537461509</v>
+        <v>-0.07484847846326538</v>
       </c>
       <c r="D87">
-        <v>0.001896603854760033</v>
+        <v>0.02780539742629223</v>
       </c>
       <c r="E87">
-        <v>-0.06140306022929716</v>
+        <v>0.03541837152524019</v>
       </c>
       <c r="F87">
-        <v>0.00102211923482007</v>
+        <v>0.09794806335718707</v>
       </c>
       <c r="G87">
-        <v>-0.1263710953307402</v>
+        <v>0.07167256805660066</v>
       </c>
       <c r="H87">
-        <v>0.05801560121898143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09785039675239364</v>
+      </c>
+      <c r="I87">
+        <v>0.04753580557806657</v>
+      </c>
+      <c r="J87">
+        <v>0.0330146622559763</v>
+      </c>
+      <c r="K87">
+        <v>0.005651048205857917</v>
+      </c>
+      <c r="L87">
+        <v>0.1711134022246244</v>
+      </c>
+      <c r="M87">
+        <v>-0.1009863930794528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05556299823911253</v>
+        <v>0.05840687666171195</v>
       </c>
       <c r="C88">
-        <v>-0.0455208864719929</v>
+        <v>-0.05374875893108778</v>
       </c>
       <c r="D88">
-        <v>0.02273234917858868</v>
+        <v>-0.0311347668182958</v>
       </c>
       <c r="E88">
-        <v>-0.007505647778816562</v>
+        <v>0.00532769460938349</v>
       </c>
       <c r="F88">
-        <v>0.01008832098697334</v>
+        <v>0.04394612187817767</v>
       </c>
       <c r="G88">
-        <v>-0.03512177821259306</v>
+        <v>-0.0322229011721147</v>
       </c>
       <c r="H88">
-        <v>0.02878462503464724</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.03260460213747366</v>
+      </c>
+      <c r="I88">
+        <v>-0.01903141704546606</v>
+      </c>
+      <c r="J88">
+        <v>0.02478417616380577</v>
+      </c>
+      <c r="K88">
+        <v>0.01876089167642331</v>
+      </c>
+      <c r="L88">
+        <v>-0.05574779000339027</v>
+      </c>
+      <c r="M88">
+        <v>-0.06202917140023452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1577171084235427</v>
+        <v>0.2083537255776075</v>
       </c>
       <c r="C89">
-        <v>0.3360311594435356</v>
+        <v>0.3621353673891824</v>
       </c>
       <c r="D89">
-        <v>0.0840143413435072</v>
+        <v>0.04555720769139995</v>
       </c>
       <c r="E89">
-        <v>-0.09020785972397904</v>
+        <v>0.08078465710976006</v>
       </c>
       <c r="F89">
-        <v>0.05390278368092423</v>
+        <v>0.005182446614551191</v>
       </c>
       <c r="G89">
-        <v>-0.03064953144475685</v>
+        <v>0.02812849760935645</v>
       </c>
       <c r="H89">
-        <v>0.003441918296616827</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02516093813132876</v>
+      </c>
+      <c r="I89">
+        <v>-0.03607546120231021</v>
+      </c>
+      <c r="J89">
+        <v>0.06741602738081877</v>
+      </c>
+      <c r="K89">
+        <v>0.001024511512930928</v>
+      </c>
+      <c r="L89">
+        <v>-0.02450997574267804</v>
+      </c>
+      <c r="M89">
+        <v>-0.08091850855853801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1230871593206653</v>
+        <v>0.1526657692491601</v>
       </c>
       <c r="C90">
-        <v>0.2761746028931363</v>
+        <v>0.2681837274596198</v>
       </c>
       <c r="D90">
-        <v>0.02875443052092692</v>
+        <v>-0.008238238638855736</v>
       </c>
       <c r="E90">
-        <v>-0.06625778789663742</v>
+        <v>0.00832796748913555</v>
       </c>
       <c r="F90">
-        <v>0.03302943990534319</v>
+        <v>0.04181797088596331</v>
       </c>
       <c r="G90">
-        <v>-0.107319440809234</v>
+        <v>0.001632813614247601</v>
       </c>
       <c r="H90">
-        <v>0.01916598385872213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.07026962055829578</v>
+      </c>
+      <c r="I90">
+        <v>-0.003659845993776098</v>
+      </c>
+      <c r="J90">
+        <v>0.004159561775240716</v>
+      </c>
+      <c r="K90">
+        <v>-0.03834403677925871</v>
+      </c>
+      <c r="L90">
+        <v>-0.01991634025419297</v>
+      </c>
+      <c r="M90">
+        <v>0.05830954417081598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.07857748248983554</v>
+        <v>0.08005467079334876</v>
       </c>
       <c r="C91">
-        <v>-0.02204260871997484</v>
+        <v>-0.05409527768586008</v>
       </c>
       <c r="D91">
-        <v>0.01591977604811406</v>
+        <v>0.002264259240683901</v>
       </c>
       <c r="E91">
-        <v>-0.003548964356666651</v>
+        <v>0.01137103638016543</v>
       </c>
       <c r="F91">
-        <v>-0.09961933058767024</v>
+        <v>-0.003160293801572845</v>
       </c>
       <c r="G91">
-        <v>0.0699123806577651</v>
+        <v>-0.08389941146225663</v>
       </c>
       <c r="H91">
-        <v>-0.01452159626299793</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.0717797839984889</v>
+      </c>
+      <c r="I91">
+        <v>-0.0301319563053476</v>
+      </c>
+      <c r="J91">
+        <v>-0.03002692638788369</v>
+      </c>
+      <c r="K91">
+        <v>-0.002093492638612628</v>
+      </c>
+      <c r="L91">
+        <v>-0.008865180057603946</v>
+      </c>
+      <c r="M91">
+        <v>0.009395773271139232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1297948333086417</v>
+        <v>0.1714932140331331</v>
       </c>
       <c r="C92">
-        <v>0.3131499159648411</v>
+        <v>0.3132157068694296</v>
       </c>
       <c r="D92">
-        <v>0.06864161660766568</v>
+        <v>0.03423985940382483</v>
       </c>
       <c r="E92">
-        <v>-0.04828613203079115</v>
+        <v>0.0485491820659044</v>
       </c>
       <c r="F92">
-        <v>0.0358927680336844</v>
+        <v>0.03924898242227309</v>
       </c>
       <c r="G92">
-        <v>0.1023104230622311</v>
+        <v>-0.01224594256382381</v>
       </c>
       <c r="H92">
-        <v>0.004094723665229767</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.0321551144941047</v>
+      </c>
+      <c r="I92">
+        <v>-0.0252422622806311</v>
+      </c>
+      <c r="J92">
+        <v>0.05034966004024367</v>
+      </c>
+      <c r="K92">
+        <v>0.01391155991042147</v>
+      </c>
+      <c r="L92">
+        <v>-0.05541965252033149</v>
+      </c>
+      <c r="M92">
+        <v>-0.0647489039928518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1292020104462579</v>
+        <v>0.1633463434469453</v>
       </c>
       <c r="C93">
-        <v>0.2619820372381643</v>
+        <v>0.2861105213353204</v>
       </c>
       <c r="D93">
-        <v>0.04271812062679489</v>
+        <v>-0.0313207138492521</v>
       </c>
       <c r="E93">
-        <v>-0.02329282227693209</v>
+        <v>0.008347910121629181</v>
       </c>
       <c r="F93">
-        <v>0.03448050271526329</v>
+        <v>0.01601183034048059</v>
       </c>
       <c r="G93">
-        <v>-0.02037711167723595</v>
+        <v>0.006912273096612931</v>
       </c>
       <c r="H93">
-        <v>0.00825170675268712</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.03990498065471219</v>
+      </c>
+      <c r="I93">
+        <v>-0.004256321476487741</v>
+      </c>
+      <c r="J93">
+        <v>-0.01802080618172548</v>
+      </c>
+      <c r="K93">
+        <v>0.03218710469205571</v>
+      </c>
+      <c r="L93">
+        <v>-0.003237379151962483</v>
+      </c>
+      <c r="M93">
+        <v>0.02363477035531153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09081372308865224</v>
+        <v>0.1131936200884252</v>
       </c>
       <c r="C94">
-        <v>-0.05577951673948886</v>
+        <v>-0.07156197824680924</v>
       </c>
       <c r="D94">
-        <v>0.01180811299286005</v>
+        <v>0.01549459528441318</v>
       </c>
       <c r="E94">
-        <v>0.006400355384205925</v>
+        <v>0.01851255880978601</v>
       </c>
       <c r="F94">
-        <v>-0.1583096692847333</v>
+        <v>-0.01686330089905405</v>
       </c>
       <c r="G94">
-        <v>0.08535905213241493</v>
+        <v>-0.1222273309261305</v>
       </c>
       <c r="H94">
-        <v>-0.05436013374009268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.09965317501642182</v>
+      </c>
+      <c r="I94">
+        <v>-0.01267015247751612</v>
+      </c>
+      <c r="J94">
+        <v>-0.03076536945787219</v>
+      </c>
+      <c r="K94">
+        <v>-0.003579418849495256</v>
+      </c>
+      <c r="L94">
+        <v>-0.04050326488242059</v>
+      </c>
+      <c r="M94">
+        <v>-0.006295165922992857</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1043930700320792</v>
+        <v>0.1132881101743886</v>
       </c>
       <c r="C95">
-        <v>-0.07227850355927323</v>
+        <v>-0.07526187476147432</v>
       </c>
       <c r="D95">
-        <v>0.06315353436729543</v>
+        <v>0.02314292700222318</v>
       </c>
       <c r="E95">
-        <v>-0.04326270832211555</v>
+        <v>0.06220419445627804</v>
       </c>
       <c r="F95">
-        <v>0.05910751423064066</v>
+        <v>0.04470933660490097</v>
       </c>
       <c r="G95">
-        <v>-0.03247327120554456</v>
+        <v>0.2533790861607603</v>
       </c>
       <c r="H95">
-        <v>0.008840510343605303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1022749690763116</v>
+      </c>
+      <c r="I95">
+        <v>-0.02023662876701554</v>
+      </c>
+      <c r="J95">
+        <v>-0.01786480939462888</v>
+      </c>
+      <c r="K95">
+        <v>0.02082550096954303</v>
+      </c>
+      <c r="L95">
+        <v>-0.059437457096741</v>
+      </c>
+      <c r="M95">
+        <v>-0.5470902404504924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-9.882630115551758e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-3.129649801759502e-05</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0003548571514194928</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001049907563932735</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.001303111284356019</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.001126254477337652</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.002149462037718465</v>
+      </c>
+      <c r="I96">
+        <v>0.0008931067140353104</v>
+      </c>
+      <c r="J96">
+        <v>-0.001828000552814873</v>
+      </c>
+      <c r="K96">
+        <v>-0.003344461243625353</v>
+      </c>
+      <c r="L96">
+        <v>-0.001669666931315657</v>
+      </c>
+      <c r="M96">
+        <v>0.004628140837919801</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.24030196737309</v>
+        <v>0.1572620697493992</v>
       </c>
       <c r="C97">
-        <v>0.07597529220275964</v>
+        <v>-0.008952189814987379</v>
       </c>
       <c r="D97">
-        <v>-0.8939003089245834</v>
+        <v>0.09915922698224706</v>
       </c>
       <c r="E97">
-        <v>0.09785926908995116</v>
+        <v>-0.9277356795237955</v>
       </c>
       <c r="F97">
-        <v>0.09929733242945622</v>
+        <v>0.03467622898600613</v>
       </c>
       <c r="G97">
-        <v>-0.0135840121240131</v>
+        <v>0.125384206000403</v>
       </c>
       <c r="H97">
-        <v>0.01494155245458947</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.02886999907964309</v>
+      </c>
+      <c r="I97">
+        <v>-0.07455397174965633</v>
+      </c>
+      <c r="J97">
+        <v>0.003039037196052267</v>
+      </c>
+      <c r="K97">
+        <v>-0.01199699531879591</v>
+      </c>
+      <c r="L97">
+        <v>0.03554890769035291</v>
+      </c>
+      <c r="M97">
+        <v>-0.01311911408920748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2970844140633255</v>
+        <v>0.2537071967362814</v>
       </c>
       <c r="C98">
-        <v>-0.118403497780901</v>
+        <v>-0.1087405660667146</v>
       </c>
       <c r="D98">
-        <v>0.1236467471043561</v>
+        <v>0.01118266699342623</v>
       </c>
       <c r="E98">
-        <v>0.2522964887140342</v>
+        <v>0.005806053981396421</v>
       </c>
       <c r="F98">
-        <v>0.4494684081061296</v>
+        <v>-0.4816029290080798</v>
       </c>
       <c r="G98">
-        <v>0.3693441269867144</v>
+        <v>0.1846342212303901</v>
       </c>
       <c r="H98">
-        <v>0.4138024017334091</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.006647569646622253</v>
+      </c>
+      <c r="I98">
+        <v>0.01649646813348366</v>
+      </c>
+      <c r="J98">
+        <v>0.4433892651170722</v>
+      </c>
+      <c r="K98">
+        <v>0.4191555004896118</v>
+      </c>
+      <c r="L98">
+        <v>0.1980938894583207</v>
+      </c>
+      <c r="M98">
+        <v>0.009761288619429834</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06386525363574849</v>
+        <v>0.06639252564184743</v>
       </c>
       <c r="C99">
-        <v>-0.05320363153132232</v>
+        <v>-0.05455676004494205</v>
       </c>
       <c r="D99">
-        <v>0.02767682405614054</v>
+        <v>0.004882919785371016</v>
       </c>
       <c r="E99">
-        <v>0.01431417341636669</v>
+        <v>0.03082614265122323</v>
       </c>
       <c r="F99">
-        <v>0.02021164339382651</v>
+        <v>-0.01692879573276514</v>
       </c>
       <c r="G99">
-        <v>-0.01000644110063155</v>
+        <v>-0.01463958767271716</v>
       </c>
       <c r="H99">
-        <v>0.08619801914595891</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01840425430743686</v>
+      </c>
+      <c r="I99">
+        <v>-0.01635974545963771</v>
+      </c>
+      <c r="J99">
+        <v>0.03762667372593787</v>
+      </c>
+      <c r="K99">
+        <v>-0.03641207258177767</v>
+      </c>
+      <c r="L99">
+        <v>0.05484311976247711</v>
+      </c>
+      <c r="M99">
+        <v>-0.04804794501939384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.002173971853857366</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.003920366563316704</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.002203676588562901</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.008489440646829426</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.00603132107135214</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.008508597504096826</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.002520813422475885</v>
+      </c>
+      <c r="I100">
+        <v>0.004168923045884669</v>
+      </c>
+      <c r="J100">
+        <v>0.006937679859246339</v>
+      </c>
+      <c r="K100">
+        <v>0.01424510157723799</v>
+      </c>
+      <c r="L100">
+        <v>0.005059546447523596</v>
+      </c>
+      <c r="M100">
+        <v>0.00833856441806907</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05185076383998821</v>
+        <v>0.04072222532840742</v>
       </c>
       <c r="C101">
-        <v>-0.02270502715071114</v>
+        <v>-0.02823433508882334</v>
       </c>
       <c r="D101">
-        <v>0.01427960104356787</v>
+        <v>-0.005226937321328875</v>
       </c>
       <c r="E101">
-        <v>-0.02762109974240764</v>
+        <v>0.02736646857294917</v>
       </c>
       <c r="F101">
-        <v>-0.002517672509251186</v>
+        <v>0.05877903719453197</v>
       </c>
       <c r="G101">
-        <v>0.01093408058954242</v>
+        <v>-0.01363497304885987</v>
       </c>
       <c r="H101">
-        <v>-0.008113331184858035</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.007878275001531196</v>
+      </c>
+      <c r="I101">
+        <v>0.002967971568771048</v>
+      </c>
+      <c r="J101">
+        <v>0.001740036091060514</v>
+      </c>
+      <c r="K101">
+        <v>0.0859573832441706</v>
+      </c>
+      <c r="L101">
+        <v>-0.0173776217174694</v>
+      </c>
+      <c r="M101">
+        <v>-0.01572784274025696</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
